--- a/cmip6/models/ec-earth3/cmip6_ec-earth-consortium_ec-earth3_atmos.xlsx
+++ b/cmip6/models/ec-earth3/cmip6_ec-earth-consortium_ec-earth3_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>EC-EARTH3</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/ec-earth3/cmip6_ec-earth-consortium_ec-earth3_atmos.xlsx
+++ b/cmip6/models/ec-earth3/cmip6_ec-earth-consortium_ec-earth3_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1086">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -219,10 +219,10 @@
     <t>cmip6.atmos.key_properties.model_family</t>
   </si>
   <si>
-    <t>AGCM</t>
-  </si>
-  <si>
-    <t>ARCM</t>
+    <t>AGCM: Atmospheric General Circulation Model</t>
+  </si>
+  <si>
+    <t>ARCM: Atmospheric Regional Climate Model</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -240,22 +240,22 @@
     <t>cmip6.atmos.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>Primitive equations</t>
-  </si>
-  <si>
-    <t>Non-hydrostatic</t>
-  </si>
-  <si>
-    <t>Anelastic</t>
+    <t>primitive equations</t>
+  </si>
+  <si>
+    <t>non-hydrostatic</t>
+  </si>
+  <si>
+    <t>anelastic</t>
   </si>
   <si>
     <t>Boussinesq</t>
   </si>
   <si>
-    <t>Hydrostatic</t>
-  </si>
-  <si>
-    <t>Quasi-hydrostatic</t>
+    <t>hydrostatic</t>
+  </si>
+  <si>
+    <t>quasi-hydrostatic</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -399,10 +399,10 @@
     <t>cmip6.atmos.key_properties.orography.type</t>
   </si>
   <si>
-    <t>Fixed: present day</t>
-  </si>
-  <si>
-    <t>Fixed: modified</t>
+    <t>fixed: present day</t>
+  </si>
+  <si>
+    <t>fixed: modified: provide details of modification below</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.2 </t>
@@ -417,16 +417,16 @@
     <t>cmip6.atmos.key_properties.orography.modified</t>
   </si>
   <si>
-    <t>Related to ice sheets</t>
-  </si>
-  <si>
-    <t>Related to tectonics</t>
-  </si>
-  <si>
-    <t>Modified mean</t>
-  </si>
-  <si>
-    <t>Modified variance if taken into account in model (cf gravity waves)</t>
+    <t>related to ice sheets</t>
+  </si>
+  <si>
+    <t>related to tectonics</t>
+  </si>
+  <si>
+    <t>modified mean</t>
+  </si>
+  <si>
+    <t>modified variance if taken into account in model (cf gravity waves)</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.3 </t>
@@ -546,10 +546,10 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_type</t>
   </si>
   <si>
-    <t>Spectral</t>
-  </si>
-  <si>
-    <t>Fixed grid</t>
+    <t>spectral</t>
+  </si>
+  <si>
+    <t>fixed grid</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -564,16 +564,16 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_method</t>
   </si>
   <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
-    <t>Finite difference</t>
-  </si>
-  <si>
-    <t>Centered finite difference</t>
+    <t>finite elements</t>
+  </si>
+  <si>
+    <t>finite volumes</t>
+  </si>
+  <si>
+    <t>finite difference</t>
+  </si>
+  <si>
+    <t>centered finite difference</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -588,13 +588,13 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_order</t>
   </si>
   <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>Fourth</t>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>fourth</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.4 </t>
@@ -609,13 +609,13 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.horizontal_pole</t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Pole rotation</t>
-  </si>
-  <si>
-    <t>Artificial island</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>pole rotation</t>
+  </si>
+  <si>
+    <t>artificial island</t>
   </si>
   <si>
     <t>2.1.2.5 *</t>
@@ -663,19 +663,19 @@
     <t>cmip6.atmos.grid.discretisation.vertical.coordinate_type</t>
   </si>
   <si>
-    <t>Isobaric</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>Hybrid sigma-pressure</t>
-  </si>
-  <si>
-    <t>Hybrid pressure</t>
-  </si>
-  <si>
-    <t>Vertically lagrangian</t>
+    <t>isobaric: vertical coordinate on pressure levels</t>
+  </si>
+  <si>
+    <t>sigma: allows vertical coordinate to follow model terrain</t>
+  </si>
+  <si>
+    <t>hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
+  </si>
+  <si>
+    <t>hybrid pressure</t>
+  </si>
+  <si>
+    <t>vertically lagrangian</t>
   </si>
   <si>
     <t>3.1.1</t>
@@ -720,19 +720,19 @@
     <t>Adams-Bashforth</t>
   </si>
   <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Semi-implicit</t>
-  </si>
-  <si>
-    <t>Leap frog</t>
-  </si>
-  <si>
-    <t>Multi-step</t>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>semi-implicit</t>
+  </si>
+  <si>
+    <t>leap frog</t>
+  </si>
+  <si>
+    <t>multi-step</t>
   </si>
   <si>
     <t>Runge Kutta fifth order</t>
@@ -756,381 +756,384 @@
     <t>cmip6.atmos.dynamical_core.prognostic_variables</t>
   </si>
   <si>
-    <t>Surface pressure</t>
-  </si>
-  <si>
-    <t>Wind components</t>
-  </si>
-  <si>
-    <t>Divergence/curl</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Potential temperature</t>
-  </si>
-  <si>
-    <t>Total water</t>
-  </si>
-  <si>
-    <t>Water vapour</t>
-  </si>
-  <si>
-    <t>Water liquid</t>
-  </si>
-  <si>
-    <t>Water ice</t>
-  </si>
-  <si>
-    <t>Total water moments</t>
-  </si>
-  <si>
-    <t>Clouds</t>
+    <t>surface pressure</t>
+  </si>
+  <si>
+    <t>wind components</t>
+  </si>
+  <si>
+    <t>divergence/curl</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>potential temperature</t>
+  </si>
+  <si>
+    <t>total water</t>
+  </si>
+  <si>
+    <t>water vapour</t>
+  </si>
+  <si>
+    <t>water liquid</t>
+  </si>
+  <si>
+    <t>water ice</t>
+  </si>
+  <si>
+    <t>total water moments</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Top Boundary</t>
+  </si>
+  <si>
+    <t>Type of boundary layer at the top of the model</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Top Boundary Condition</t>
+  </si>
+  <si>
+    <t>Top boundary condition</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.top_boundary.top_boundary_condition</t>
+  </si>
+  <si>
+    <t>sponge layer</t>
+  </si>
+  <si>
+    <t>radiation boundary condition</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Top Heat</t>
+  </si>
+  <si>
+    <t>Top boundary heat treatment</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.top_boundary.top_heat</t>
+  </si>
+  <si>
+    <t>3.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Top Wind</t>
+  </si>
+  <si>
+    <t>Top boundary wind treatment</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.top_boundary.top_wind</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Lateral Boundary</t>
+  </si>
+  <si>
+    <t>Type of lateral boundary condition (if the model is a regional model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.1 </t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Type of lateral boundary condition</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.lateral_boundary.condition</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Diffusion Horizontal</t>
+  </si>
+  <si>
+    <t>Horizontal diffusion scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.1.1 </t>
+  </si>
+  <si>
+    <t>Scheme Name</t>
+  </si>
+  <si>
+    <t>Horizontal diffusion scheme name</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_name</t>
+  </si>
+  <si>
+    <t>3.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Horizontal diffusion scheme method</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_method</t>
+  </si>
+  <si>
+    <t>iterated Laplacian</t>
+  </si>
+  <si>
+    <t>bi-harmonic</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Advection --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.2.1 </t>
+  </si>
+  <si>
+    <t>Tracer advection scheme name</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_name</t>
+  </si>
+  <si>
+    <t>Heun</t>
+  </si>
+  <si>
+    <t>Roe and VanLeer</t>
+  </si>
+  <si>
+    <t>Roe and Superbee</t>
+  </si>
+  <si>
+    <t>Prather</t>
+  </si>
+  <si>
+    <t>UTOPIA</t>
+  </si>
+  <si>
+    <t>3.4.2.2 *</t>
+  </si>
+  <si>
+    <t>Scheme Characteristics</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme characteristics</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_characteristics</t>
+  </si>
+  <si>
+    <t>Eulerian</t>
+  </si>
+  <si>
+    <t>modified Euler</t>
+  </si>
+  <si>
+    <t>Lagrangian</t>
+  </si>
+  <si>
+    <t>semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>cubic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>quintic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>mass-conserving</t>
+  </si>
+  <si>
+    <t>finite volume</t>
+  </si>
+  <si>
+    <t>flux-corrected</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>quadratic</t>
+  </si>
+  <si>
+    <t>quartic</t>
+  </si>
+  <si>
+    <t>3.4.2.3 *</t>
+  </si>
+  <si>
+    <t>Conserved Quantities</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme conserved quantities</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.conserved_quantities</t>
+  </si>
+  <si>
+    <t>dry mass</t>
+  </si>
+  <si>
+    <t>tracer mass</t>
+  </si>
+  <si>
+    <t>3.4.2.4 *</t>
+  </si>
+  <si>
+    <t>Conservation Method</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme conservation method</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.conservation_method</t>
+  </si>
+  <si>
+    <t>conservation fixer</t>
+  </si>
+  <si>
+    <t>Priestley algorithm</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Advection --&gt; Momentum</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.3.1 </t>
+  </si>
+  <si>
+    <t>Momentum advection schemes name</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_name</t>
+  </si>
+  <si>
+    <t>VanLeer</t>
+  </si>
+  <si>
+    <t>Janjic</t>
+  </si>
+  <si>
+    <t>SUPG (Streamline Upwind Petrov-Galerkin)</t>
+  </si>
+  <si>
+    <t>3.4.3.2 *</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme characteristics</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_characteristics</t>
+  </si>
+  <si>
+    <t>2nd order</t>
+  </si>
+  <si>
+    <t>4th order</t>
+  </si>
+  <si>
+    <t>cell-centred</t>
+  </si>
+  <si>
+    <t>staggered grid</t>
+  </si>
+  <si>
+    <t>semi-staggered grid</t>
+  </si>
+  <si>
+    <t>3.4.3.3 *</t>
+  </si>
+  <si>
+    <t>Scheme Staggering Type</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme staggering type</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_staggering_type</t>
+  </si>
+  <si>
+    <t>Arakawa B-grid</t>
+  </si>
+  <si>
+    <t>Arakawa C-grid</t>
+  </si>
+  <si>
+    <t>Arakawa D-grid</t>
+  </si>
+  <si>
+    <t>Arakawa E-grid</t>
+  </si>
+  <si>
+    <t>3.4.3.4 *</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme conserved quantities</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.conserved_quantities</t>
+  </si>
+  <si>
+    <t>Angular momentum</t>
+  </si>
+  <si>
+    <t>Horizontal momentum</t>
+  </si>
+  <si>
+    <t>Enstrophy</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>Vorticity</t>
+  </si>
+  <si>
+    <t>3.4.3.5 *</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme conservation method</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.conservation_method</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Radiation</t>
   </si>
   <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Top Boundary</t>
-  </si>
-  <si>
-    <t>Type of boundary layer at the top of the model</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Top Boundary Condition</t>
-  </si>
-  <si>
-    <t>Top boundary condition</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.top_boundary.top_boundary_condition</t>
-  </si>
-  <si>
-    <t>Sponge layer</t>
-  </si>
-  <si>
-    <t>Radiation boundary condition</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Top Heat</t>
-  </si>
-  <si>
-    <t>Top boundary heat treatment</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.top_boundary.top_heat</t>
-  </si>
-  <si>
-    <t>3.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Top Wind</t>
-  </si>
-  <si>
-    <t>Top boundary wind treatment</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.top_boundary.top_wind</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Lateral Boundary</t>
-  </si>
-  <si>
-    <t>Type of lateral boundary condition (if the model is a regional model)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.1 </t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Type of lateral boundary condition</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.lateral_boundary.condition</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Diffusion Horizontal</t>
-  </si>
-  <si>
-    <t>Horizontal diffusion scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.1.1 </t>
-  </si>
-  <si>
-    <t>Scheme Name</t>
-  </si>
-  <si>
-    <t>Horizontal diffusion scheme name</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_name</t>
-  </si>
-  <si>
-    <t>3.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Horizontal diffusion scheme method</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_method</t>
-  </si>
-  <si>
-    <t>Iterated Laplacian</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
-  </si>
-  <si>
-    <t>3.4.2</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Advection --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.2.1 </t>
-  </si>
-  <si>
-    <t>Tracer advection scheme name</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_name</t>
-  </si>
-  <si>
-    <t>Heun</t>
-  </si>
-  <si>
-    <t>Roe and VanLeer</t>
-  </si>
-  <si>
-    <t>Roe and Superbee</t>
-  </si>
-  <si>
-    <t>Prather</t>
-  </si>
-  <si>
-    <t>UTOPIA</t>
-  </si>
-  <si>
-    <t>3.4.2.2 *</t>
-  </si>
-  <si>
-    <t>Scheme Characteristics</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme characteristics</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_characteristics</t>
-  </si>
-  <si>
-    <t>Eulerian</t>
-  </si>
-  <si>
-    <t>Modified Euler</t>
-  </si>
-  <si>
-    <t>Lagrangian</t>
-  </si>
-  <si>
-    <t>Semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>Cubic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>Quintic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>Mass-conserving</t>
-  </si>
-  <si>
-    <t>Finite volume</t>
-  </si>
-  <si>
-    <t>Flux-corrected</t>
-  </si>
-  <si>
-    <t>Linear</t>
-  </si>
-  <si>
-    <t>Quadratic</t>
-  </si>
-  <si>
-    <t>Quartic</t>
-  </si>
-  <si>
-    <t>3.4.2.3 *</t>
-  </si>
-  <si>
-    <t>Conserved Quantities</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme conserved quantities</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.conserved_quantities</t>
-  </si>
-  <si>
-    <t>Dry mass</t>
-  </si>
-  <si>
-    <t>Tracer mass</t>
-  </si>
-  <si>
-    <t>3.4.2.4 *</t>
-  </si>
-  <si>
-    <t>Conservation Method</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme conservation method</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.conservation_method</t>
-  </si>
-  <si>
-    <t>Conservation fixer</t>
-  </si>
-  <si>
-    <t>Priestley algorithm</t>
-  </si>
-  <si>
-    <t>3.4.3</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Advection --&gt; Momentum</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.3.1 </t>
-  </si>
-  <si>
-    <t>Momentum advection schemes name</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_name</t>
-  </si>
-  <si>
-    <t>VanLeer</t>
-  </si>
-  <si>
-    <t>Janjic</t>
-  </si>
-  <si>
-    <t>SUPG (Streamline Upwind Petrov-Galerkin)</t>
-  </si>
-  <si>
-    <t>3.4.3.2 *</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme characteristics</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_characteristics</t>
-  </si>
-  <si>
-    <t>2nd order</t>
-  </si>
-  <si>
-    <t>4th order</t>
-  </si>
-  <si>
-    <t>Cell-centred</t>
-  </si>
-  <si>
-    <t>Staggered grid</t>
-  </si>
-  <si>
-    <t>Semi-staggered grid</t>
-  </si>
-  <si>
-    <t>3.4.3.3 *</t>
-  </si>
-  <si>
-    <t>Scheme Staggering Type</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme staggering type</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_staggering_type</t>
-  </si>
-  <si>
-    <t>Arakawa B-grid</t>
-  </si>
-  <si>
-    <t>Arakawa C-grid</t>
-  </si>
-  <si>
-    <t>Arakawa D-grid</t>
-  </si>
-  <si>
-    <t>Arakawa E-grid</t>
-  </si>
-  <si>
-    <t>3.4.3.4 *</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme conserved quantities</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.conserved_quantities</t>
-  </si>
-  <si>
-    <t>Angular momentum</t>
-  </si>
-  <si>
-    <t>Horizontal momentum</t>
-  </si>
-  <si>
-    <t>Enstrophy</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Total energy</t>
-  </si>
-  <si>
-    <t>Vorticity</t>
-  </si>
-  <si>
-    <t>3.4.3.5 *</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme conservation method</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.conservation_method</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
     <t>Characteristics of the atmosphere radiation process</t>
   </si>
   <si>
@@ -1164,43 +1167,43 @@
     <t>cmip6.atmos.radiation.aerosols</t>
   </si>
   <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SOA</t>
-  </si>
-  <si>
-    <t>POM</t>
-  </si>
-  <si>
-    <t>Polar stratospheric ice</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>STS</t>
+    <t>sulphate</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>sea salt</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>BC: black carbon / soot</t>
+  </si>
+  <si>
+    <t>SOA: secondary organic aerosols</t>
+  </si>
+  <si>
+    <t>POM: particulate organic matter</t>
+  </si>
+  <si>
+    <t>polar stratospheric ice</t>
+  </si>
+  <si>
+    <t>NAT: nitric acid trihydrate</t>
+  </si>
+  <si>
+    <t>NAD: nitric acid dihydrate</t>
+  </si>
+  <si>
+    <t>STS: supercooled ternary solution aerosol particle</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -1233,13 +1236,13 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.spectral_integration</t>
   </si>
   <si>
-    <t>Wide-band model</t>
-  </si>
-  <si>
-    <t>Correlated-k</t>
-  </si>
-  <si>
-    <t>Exponential sum fitting</t>
+    <t>wide-band model</t>
+  </si>
+  <si>
+    <t>correlated-k</t>
+  </si>
+  <si>
+    <t>exponential sum fitting</t>
   </si>
   <si>
     <t>4.2.1.3 *</t>
@@ -1254,19 +1257,19 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.transport_calculation</t>
   </si>
   <si>
-    <t>Two-stream</t>
-  </si>
-  <si>
-    <t>Layer interaction</t>
-  </si>
-  <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Adaptive</t>
-  </si>
-  <si>
-    <t>Multi-stream</t>
+    <t>two-stream</t>
+  </si>
+  <si>
+    <t>layer interaction</t>
+  </si>
+  <si>
+    <t>bulk: highly parameterised methods that use bulk expressions</t>
+  </si>
+  <si>
+    <t>adaptive: exploits spatial and temporal correlations in optical characteristics</t>
+  </si>
+  <si>
+    <t>multi-stream</t>
   </si>
   <si>
     <t>4.2.1.4 *</t>
@@ -1293,10 +1296,10 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.general_interactions</t>
   </si>
   <si>
-    <t>Emission/absorption,</t>
-  </si>
-  <si>
-    <t>Scattering</t>
+    <t>emission/absorption,</t>
+  </si>
+  <si>
+    <t>scattering</t>
   </si>
   <si>
     <t>4.3.1</t>
@@ -1320,28 +1323,28 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.greenhouse_gas_complexity</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>CFC-11 eq</t>
-  </si>
-  <si>
-    <t>CFC-12 eq</t>
-  </si>
-  <si>
-    <t>HFC-134a eq</t>
-  </si>
-  <si>
-    <t>Explicit ODSs</t>
-  </si>
-  <si>
-    <t>Explicit other fluorinated gases</t>
+    <t>CO2: Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>CH4: Methane</t>
+  </si>
+  <si>
+    <t>N2O: Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>CFC-11 eq: Summarize the effect of non CO2, CH4, N2O and CFC-12 gases with an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>CFC-12 eq: Summarize the radiative effect of the Ozone Depleating Substances, ODSs, with a CFC-12 equivalence concentration</t>
+  </si>
+  <si>
+    <t>HFC-134a eq: Summarize the radiative effect of other fluorinated gases with a HFC-134a equivalence concentration</t>
+  </si>
+  <si>
+    <t>Explicit ODSs: Explicit representation of Ozone Depleting Substances e.g. CFCs, HCFCs and Halons</t>
+  </si>
+  <si>
+    <t>Explicit other fluorinated gases: Explicit representation of other fluorinated gases e.g. HFCs and PFCs</t>
   </si>
   <si>
     <t>O3</t>
@@ -1362,55 +1365,55 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.ODS</t>
   </si>
   <si>
-    <t>CFC-12</t>
-  </si>
-  <si>
-    <t>CFC-11</t>
-  </si>
-  <si>
-    <t>CFC-113</t>
-  </si>
-  <si>
-    <t>CFC-114</t>
-  </si>
-  <si>
-    <t>CFC-115</t>
-  </si>
-  <si>
-    <t>HCFC-22</t>
-  </si>
-  <si>
-    <t>HCFC-141b</t>
-  </si>
-  <si>
-    <t>HCFC-142b</t>
-  </si>
-  <si>
-    <t>Halon-1211</t>
-  </si>
-  <si>
-    <t>Halon-1301</t>
-  </si>
-  <si>
-    <t>Halon-2402</t>
-  </si>
-  <si>
-    <t>Methyl chloroform</t>
-  </si>
-  <si>
-    <t>Carbon tetrachloride</t>
-  </si>
-  <si>
-    <t>Methyl chloride</t>
-  </si>
-  <si>
-    <t>Methylene chloride</t>
-  </si>
-  <si>
-    <t>Chloroform</t>
-  </si>
-  <si>
-    <t>Methyl bromide</t>
+    <t>CFC-12: CFC</t>
+  </si>
+  <si>
+    <t>CFC-11: CFC</t>
+  </si>
+  <si>
+    <t>CFC-113: CFC</t>
+  </si>
+  <si>
+    <t>CFC-114: CFC</t>
+  </si>
+  <si>
+    <t>CFC-115: CFC</t>
+  </si>
+  <si>
+    <t>HCFC-22: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-141b: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-142b: HCFC</t>
+  </si>
+  <si>
+    <t>Halon-1211: halon</t>
+  </si>
+  <si>
+    <t>Halon-1301: halon</t>
+  </si>
+  <si>
+    <t>Halon-2402: halon</t>
+  </si>
+  <si>
+    <t>methyl chloroform: CH3CCl3</t>
+  </si>
+  <si>
+    <t>carbon tetrachloride: CCl4</t>
+  </si>
+  <si>
+    <t>methyl chloride: CH3Cl</t>
+  </si>
+  <si>
+    <t>methylene chloride: CH2Cl2</t>
+  </si>
+  <si>
+    <t>chloroform: CHCl3</t>
+  </si>
+  <si>
+    <t>methyl bromide: Ch3Br</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1.3 </t>
@@ -1425,64 +1428,64 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.other_flourinated_gases</t>
   </si>
   <si>
-    <t>HFC-134a</t>
-  </si>
-  <si>
-    <t>HFC-23</t>
-  </si>
-  <si>
-    <t>HFC-32</t>
-  </si>
-  <si>
-    <t>HFC-125</t>
-  </si>
-  <si>
-    <t>HFC-143a</t>
-  </si>
-  <si>
-    <t>HFC-152a</t>
-  </si>
-  <si>
-    <t>HFC-227ea</t>
-  </si>
-  <si>
-    <t>HFC-236fa</t>
-  </si>
-  <si>
-    <t>HFC-245fa</t>
-  </si>
-  <si>
-    <t>HFC-365mfc</t>
-  </si>
-  <si>
-    <t>HFC-43-10mee</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>C2F6</t>
-  </si>
-  <si>
-    <t>C3F8</t>
-  </si>
-  <si>
-    <t>C4F10</t>
-  </si>
-  <si>
-    <t>C5F12</t>
-  </si>
-  <si>
-    <t>C6F14</t>
-  </si>
-  <si>
-    <t>C7F16</t>
-  </si>
-  <si>
-    <t>C8F18</t>
-  </si>
-  <si>
-    <t>C-C4F8</t>
+    <t>HFC-134a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-23: HFC</t>
+  </si>
+  <si>
+    <t>HFC-32: HFC</t>
+  </si>
+  <si>
+    <t>HFC-125: HFC</t>
+  </si>
+  <si>
+    <t>HFC-143a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-152a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-227ea: HFC</t>
+  </si>
+  <si>
+    <t>HFC-236fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-245fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-365mfc: HFC</t>
+  </si>
+  <si>
+    <t>HFC-43-10mee: HFC</t>
+  </si>
+  <si>
+    <t>CF4: PFC</t>
+  </si>
+  <si>
+    <t>C2F6: PFC</t>
+  </si>
+  <si>
+    <t>C3F8: PFC</t>
+  </si>
+  <si>
+    <t>C4F10: PFC</t>
+  </si>
+  <si>
+    <t>C5F12: PFC</t>
+  </si>
+  <si>
+    <t>C6F14: PFC</t>
+  </si>
+  <si>
+    <t>C7F16: PFC</t>
+  </si>
+  <si>
+    <t>C8F18: PFC</t>
+  </si>
+  <si>
+    <t>c-C4F8: PFC</t>
   </si>
   <si>
     <t>NF3</t>
@@ -1515,25 +1518,25 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.physical_representation</t>
   </si>
   <si>
-    <t>Bi-modal size distribution</t>
-  </si>
-  <si>
-    <t>Ensemble of ice crystals</t>
-  </si>
-  <si>
-    <t>Mean projected area</t>
-  </si>
-  <si>
-    <t>Ice water path</t>
-  </si>
-  <si>
-    <t>Crystal asymmetry</t>
-  </si>
-  <si>
-    <t>Crystal aspect ratio</t>
-  </si>
-  <si>
-    <t>Effective crystal radius</t>
+    <t>bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
+  </si>
+  <si>
+    <t>ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
+  </si>
+  <si>
+    <t>mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
+  </si>
+  <si>
+    <t>ice water path: Integrated ice water path through the cloud kg m-2</t>
+  </si>
+  <si>
+    <t>crystal asymmetry</t>
+  </si>
+  <si>
+    <t>crystal aspect ratio</t>
+  </si>
+  <si>
+    <t>effective crystal radius</t>
   </si>
   <si>
     <t>4.4.1.2 *</t>
@@ -1548,19 +1551,19 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.optical_methods</t>
   </si>
   <si>
-    <t>T-matrix</t>
-  </si>
-  <si>
-    <t>Geometric optics</t>
-  </si>
-  <si>
-    <t>Finite difference time domain (FDTD)</t>
-  </si>
-  <si>
-    <t>Mie theory</t>
-  </si>
-  <si>
-    <t>Anomalous diffraction approximation</t>
+    <t>T-matrix: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>geometric optics: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>finite difference time domain (FDTD): For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Mie theory: For spherical particles</t>
+  </si>
+  <si>
+    <t>anomalous diffraction approximation</t>
   </si>
   <si>
     <t>4.5.1</t>
@@ -1581,16 +1584,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_liquid.physical_representation</t>
   </si>
   <si>
-    <t>Cloud droplet number concentration</t>
-  </si>
-  <si>
-    <t>Effective cloud droplet radii</t>
-  </si>
-  <si>
-    <t>Droplet size distribution</t>
-  </si>
-  <si>
-    <t>Liquid water path</t>
+    <t>cloud droplet number concentration: CDNC</t>
+  </si>
+  <si>
+    <t>effective cloud droplet radii</t>
+  </si>
+  <si>
+    <t>droplet size distribution</t>
+  </si>
+  <si>
+    <t>liquid water path: Integrated liquid water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>4.5.1.2 *</t>
@@ -1623,13 +1626,13 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_inhomogeneity.cloud_inhomogeneity</t>
   </si>
   <si>
-    <t>Monte Carlo Independent Column Approximation</t>
-  </si>
-  <si>
-    <t>Triplecloud</t>
-  </si>
-  <si>
-    <t>Analytic</t>
+    <t>Monte Carlo Independent Column Approximation: McICA</t>
+  </si>
+  <si>
+    <t>Triplecloud: Regions of clear sky, optically thin cloud and optically thick cloud, Shonk et al 2010</t>
+  </si>
+  <si>
+    <t>analytic</t>
   </si>
   <si>
     <t>4.7.1</t>
@@ -1650,22 +1653,22 @@
     <t>cmip6.atmos.radiation.shortwave_aerosols.physical_representation</t>
   </si>
   <si>
-    <t>Number concentration</t>
-  </si>
-  <si>
-    <t>Effective radii</t>
-  </si>
-  <si>
-    <t>Size distribution</t>
-  </si>
-  <si>
-    <t>Asymmetry</t>
-  </si>
-  <si>
-    <t>Aspect ratio</t>
-  </si>
-  <si>
-    <t>Mixing state</t>
+    <t>number concentration</t>
+  </si>
+  <si>
+    <t>effective radii</t>
+  </si>
+  <si>
+    <t>size distribution</t>
+  </si>
+  <si>
+    <t>asymmetry</t>
+  </si>
+  <si>
+    <t>aspect ratio</t>
+  </si>
+  <si>
+    <t>mixing state: For shortwave radiative interaction</t>
   </si>
   <si>
     <t>4.7.1.2 *</t>
@@ -1914,7 +1917,7 @@
     <t>Holtslag-Boville</t>
   </si>
   <si>
-    <t>EDMF</t>
+    <t>EDMF: Combined Eddy Diffusivity Mass-Flux</t>
   </si>
   <si>
     <t>5.2.1.2 *</t>
@@ -1935,16 +1938,16 @@
     <t>TKE coupled with water</t>
   </si>
   <si>
-    <t>Vertical profile of Kz</t>
-  </si>
-  <si>
-    <t>Non-local diffusion</t>
+    <t>vertical profile of Kz</t>
+  </si>
+  <si>
+    <t>non-local diffusion</t>
   </si>
   <si>
     <t>Monin-Obukhov similarity</t>
   </si>
   <si>
-    <t>Coastal Buddy Scheme</t>
+    <t>Coastal Buddy Scheme: separate components for coastal near surface winds over ocean and land</t>
   </si>
   <si>
     <t>Coupled with convection</t>
@@ -1953,7 +1956,7 @@
     <t>Coupled with gravity waves</t>
   </si>
   <si>
-    <t>Depth capped at cloud base</t>
+    <t>Depth capped at cloud base: boundary layer capped at cloud base when convection is diagnosed</t>
   </si>
   <si>
     <t>5.2.1.3 *</t>
@@ -2007,13 +2010,13 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_type</t>
   </si>
   <si>
-    <t>Mass-flux</t>
-  </si>
-  <si>
-    <t>Adjustment</t>
-  </si>
-  <si>
-    <t>Plume ensemble</t>
+    <t>mass-flux</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>plume ensemble: Zhang-McFarlane</t>
   </si>
   <si>
     <t>5.3.1.3 *</t>
@@ -2025,16 +2028,19 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_method</t>
   </si>
   <si>
-    <t>CAPE</t>
-  </si>
-  <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
-    <t>CAPE/WFN based</t>
-  </si>
-  <si>
-    <t>TKE/CIN based</t>
+    <t>CAPE: Mass flux determined by CAPE, convectively available potential energy.</t>
+  </si>
+  <si>
+    <t>bulk: A bulk mass flux scheme is used</t>
+  </si>
+  <si>
+    <t>ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
+  </si>
+  <si>
+    <t>CAPE/WFN based: CAPE-Cloud Work Function: Based on the quasi-equilibrium of the free troposphere</t>
+  </si>
+  <si>
+    <t>TKE/CIN based: TKE-Convective Inhibition: Based on the quasi-equilibrium of the boundary layer</t>
   </si>
   <si>
     <t>5.3.1.4 *</t>
@@ -2049,31 +2055,31 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.processes</t>
   </si>
   <si>
-    <t>Vertical momentum transport</t>
-  </si>
-  <si>
-    <t>Convective momentum transport</t>
-  </si>
-  <si>
-    <t>Entrainment</t>
-  </si>
-  <si>
-    <t>Detrainment</t>
-  </si>
-  <si>
-    <t>Penetrative convection</t>
-  </si>
-  <si>
-    <t>Updrafts</t>
-  </si>
-  <si>
-    <t>Downdrafts</t>
-  </si>
-  <si>
-    <t>Radiative effect of anvils</t>
-  </si>
-  <si>
-    <t>Re-evaporation of convective precipitation</t>
+    <t>vertical momentum transport</t>
+  </si>
+  <si>
+    <t>convective momentum transport</t>
+  </si>
+  <si>
+    <t>entrainment</t>
+  </si>
+  <si>
+    <t>detrainment</t>
+  </si>
+  <si>
+    <t>penetrative convection</t>
+  </si>
+  <si>
+    <t>updrafts</t>
+  </si>
+  <si>
+    <t>downdrafts</t>
+  </si>
+  <si>
+    <t>radiative effect of anvils</t>
+  </si>
+  <si>
+    <t>re-evaporation of convective precipitation</t>
   </si>
   <si>
     <t xml:space="preserve">5.3.1.5 </t>
@@ -2088,13 +2094,13 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.microphysics</t>
   </si>
   <si>
-    <t>Tuning parameter based</t>
-  </si>
-  <si>
-    <t>Single moment</t>
-  </si>
-  <si>
-    <t>Two moment</t>
+    <t>tuning parameter based</t>
+  </si>
+  <si>
+    <t>single moment</t>
+  </si>
+  <si>
+    <t>two moment</t>
   </si>
   <si>
     <t>5.4.1</t>
@@ -2124,7 +2130,7 @@
     <t>cmip6.atmos.turbulence_convection.shallow_convection.scheme_type</t>
   </si>
   <si>
-    <t>Cumulus-capped boundary layer</t>
+    <t>cumulus-capped boundary layer</t>
   </si>
   <si>
     <t>5.4.1.3 *</t>
@@ -2136,13 +2142,13 @@
     <t>cmip6.atmos.turbulence_convection.shallow_convection.scheme_method</t>
   </si>
   <si>
-    <t>Same as deep (unified)</t>
-  </si>
-  <si>
-    <t>Included in boundary layer turbulence</t>
-  </si>
-  <si>
-    <t>Separate diagnosis</t>
+    <t>same as deep (unified)</t>
+  </si>
+  <si>
+    <t>included in boundary layer turbulence</t>
+  </si>
+  <si>
+    <t>separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
   </si>
   <si>
     <t>5.4.1.4 *</t>
@@ -2220,16 +2226,16 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_precipitation.hydrometeors</t>
   </si>
   <si>
-    <t>Liquid rain</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Hail</t>
-  </si>
-  <si>
-    <t>Graupel</t>
+    <t>liquid rain</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>graupel</t>
   </si>
   <si>
     <t>6.3.1</t>
@@ -2259,28 +2265,28 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_cloud_microphysics.processes</t>
   </si>
   <si>
-    <t>Mixed phase</t>
-  </si>
-  <si>
-    <t>Cloud droplets</t>
-  </si>
-  <si>
-    <t>Cloud ice</t>
-  </si>
-  <si>
-    <t>Ice nucleation</t>
-  </si>
-  <si>
-    <t>Water vapour deposition</t>
-  </si>
-  <si>
-    <t>Effect of raindrops</t>
-  </si>
-  <si>
-    <t>Effect of snow</t>
-  </si>
-  <si>
-    <t>Effect of graupel</t>
+    <t>mixed phase</t>
+  </si>
+  <si>
+    <t>cloud droplets</t>
+  </si>
+  <si>
+    <t>cloud ice</t>
+  </si>
+  <si>
+    <t>ice nucleation</t>
+  </si>
+  <si>
+    <t>water vapour deposition</t>
+  </si>
+  <si>
+    <t>effect of raindrops</t>
+  </si>
+  <si>
+    <t>effect of snow</t>
+  </si>
+  <si>
+    <t>effect of graupel</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -2319,10 +2325,10 @@
     <t>cmip6.atmos.cloud_scheme.scheme_type</t>
   </si>
   <si>
-    <t>Prognostic</t>
-  </si>
-  <si>
-    <t>Diagnostic</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>7.1.1.4 *</t>
@@ -2346,7 +2352,7 @@
     <t>cmip6.atmos.cloud_scheme.processes</t>
   </si>
   <si>
-    <t>Bulk cloud</t>
+    <t>bulk cloud</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.6 </t>
@@ -2358,16 +2364,19 @@
     <t>cmip6.atmos.cloud_scheme.prognostic_variables</t>
   </si>
   <si>
-    <t>Cloud amount</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>Ice crystal number concentration</t>
+    <t>cloud amount</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
+  </si>
+  <si>
+    <t>ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.7 </t>
@@ -2382,22 +2391,22 @@
     <t>cmip6.atmos.cloud_scheme.atmos_coupling</t>
   </si>
   <si>
-    <t>Atmosphere_radiation</t>
-  </si>
-  <si>
-    <t>Atmosphere_microphysics_precipitation</t>
-  </si>
-  <si>
-    <t>Atmosphere_turbulence_convection</t>
-  </si>
-  <si>
-    <t>Atmosphere_gravity_waves</t>
-  </si>
-  <si>
-    <t>Atmosphere_natural_forcing</t>
-  </si>
-  <si>
-    <t>Atmosphere_observation_simulation</t>
+    <t>atmosphere_radiation</t>
+  </si>
+  <si>
+    <t>atmosphere_microphysics_precipitation</t>
+  </si>
+  <si>
+    <t>atmosphere_turbulence_convection</t>
+  </si>
+  <si>
+    <t>atmosphere_gravity_waves</t>
+  </si>
+  <si>
+    <t>atmosphere_natural_forcing</t>
+  </si>
+  <si>
+    <t>atmosphere_observation_simulation</t>
   </si>
   <si>
     <t>7.2.1</t>
@@ -2421,16 +2430,16 @@
     <t>cmip6.atmos.cloud_scheme.optical_cloud_properties.cloud_overlap_method</t>
   </si>
   <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Maximum-random</t>
-  </si>
-  <si>
-    <t>Exponential</t>
+    <t>random</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>maximum-random: combination of maximum and random overlap between clouds</t>
+  </si>
+  <si>
+    <t>exponential</t>
   </si>
   <si>
     <t xml:space="preserve">7.2.1.2 </t>
@@ -2496,13 +2505,13 @@
     <t>cmip6.atmos.cloud_scheme.sub_grid_scale_water_distribution.convection_coupling</t>
   </si>
   <si>
-    <t>Coupled with deep</t>
-  </si>
-  <si>
-    <t>Coupled with shallow</t>
-  </si>
-  <si>
-    <t>Not coupled with convection</t>
+    <t>coupled with deep</t>
+  </si>
+  <si>
+    <t>coupled with shallow</t>
+  </si>
+  <si>
+    <t>not coupled with convection</t>
   </si>
   <si>
     <t>7.4.1</t>
@@ -2598,13 +2607,13 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_estimation_method</t>
   </si>
   <si>
-    <t>No adjustment</t>
+    <t>no adjustment</t>
   </si>
   <si>
     <t>IR brightness</t>
   </si>
   <si>
-    <t>Visible optical depth</t>
+    <t>visible optical depth</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.1.2 </t>
@@ -2619,10 +2628,10 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_direction</t>
   </si>
   <si>
-    <t>Lowest altitude level</t>
-  </si>
-  <si>
-    <t>Highest altitude level</t>
+    <t>lowest altitude level</t>
+  </si>
+  <si>
+    <t>highest altitude level</t>
   </si>
   <si>
     <t>8.3.1</t>
@@ -2721,10 +2730,10 @@
     <t>cmip6.atmos.observation_simulation.radar_inputs.type</t>
   </si>
   <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Space borne</t>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>space borne</t>
   </si>
   <si>
     <t xml:space="preserve">8.4.1.3 </t>
@@ -2772,10 +2781,10 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.ice_types</t>
   </si>
   <si>
-    <t>Ice spheres</t>
-  </si>
-  <si>
-    <t>Ice non-spherical</t>
+    <t>ice spheres</t>
+  </si>
+  <si>
+    <t>ice non-spherical</t>
   </si>
   <si>
     <t xml:space="preserve">8.5.1.2 </t>
@@ -2790,7 +2799,7 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.overlap</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>max</t>
   </si>
   <si>
     <t>9.1.1</t>
@@ -2850,10 +2859,10 @@
     <t>cmip6.atmos.gravity_waves.background</t>
   </si>
   <si>
-    <t>Continuous spectrum</t>
-  </si>
-  <si>
-    <t>Discrete spectrum</t>
+    <t>continuous spectrum</t>
+  </si>
+  <si>
+    <t>discrete spectrum</t>
   </si>
   <si>
     <t>9.1.1.5 *</t>
@@ -2868,13 +2877,13 @@
     <t>cmip6.atmos.gravity_waves.subgrid_scale_orography</t>
   </si>
   <si>
-    <t>Effect on drag</t>
-  </si>
-  <si>
-    <t>Effect on lifting</t>
-  </si>
-  <si>
-    <t>Enhanced topography</t>
+    <t>effect on drag</t>
+  </si>
+  <si>
+    <t>effect on lifting</t>
+  </si>
+  <si>
+    <t>enhanced topography: To enhance the generation of long waves in the atmosphere</t>
   </si>
   <si>
     <t>9.2.1</t>
@@ -2907,19 +2916,19 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.source_mechanisms</t>
   </si>
   <si>
-    <t>Linear mountain waves</t>
-  </si>
-  <si>
-    <t>Hydraulic jump</t>
-  </si>
-  <si>
-    <t>Envelope orography</t>
-  </si>
-  <si>
-    <t>Low level flow blocking</t>
-  </si>
-  <si>
-    <t>Statistical sub-grid scale variance</t>
+    <t>linear mountain waves</t>
+  </si>
+  <si>
+    <t>hydraulic jump</t>
+  </si>
+  <si>
+    <t>envelope orography</t>
+  </si>
+  <si>
+    <t>low level flow blocking</t>
+  </si>
+  <si>
+    <t>statistical sub-grid scale variance</t>
   </si>
   <si>
     <t>9.2.1.3 *</t>
@@ -2934,10 +2943,10 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.calculation_method</t>
   </si>
   <si>
-    <t>Non-linear calculation</t>
-  </si>
-  <si>
-    <t>More than two cardinal directions</t>
+    <t>non-linear calculation</t>
+  </si>
+  <si>
+    <t>more than two cardinal directions</t>
   </si>
   <si>
     <t>9.2.1.4 *</t>
@@ -2952,13 +2961,13 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.propagation_scheme</t>
   </si>
   <si>
-    <t>Linear theory</t>
-  </si>
-  <si>
-    <t>Non-linear theory</t>
-  </si>
-  <si>
-    <t>Includes boundary layer ducting</t>
+    <t>linear theory</t>
+  </si>
+  <si>
+    <t>non-linear theory</t>
+  </si>
+  <si>
+    <t>includes boundary layer ducting</t>
   </si>
   <si>
     <t>9.2.1.5 *</t>
@@ -2973,13 +2982,13 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.dissipation_scheme</t>
   </si>
   <si>
-    <t>Total wave</t>
-  </si>
-  <si>
-    <t>Single wave</t>
-  </si>
-  <si>
-    <t>Wave saturation vs Richardson number</t>
+    <t>total wave</t>
+  </si>
+  <si>
+    <t>single wave</t>
+  </si>
+  <si>
+    <t>wave saturation vs Richardson number</t>
   </si>
   <si>
     <t>9.3.1</t>
@@ -3009,13 +3018,13 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.source_mechanisms</t>
   </si>
   <si>
-    <t>Convection</t>
-  </si>
-  <si>
-    <t>Precipitation</t>
-  </si>
-  <si>
-    <t>Background spectrum</t>
+    <t>convection</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>background spectrum</t>
   </si>
   <si>
     <t>9.3.1.3 *</t>
@@ -3027,10 +3036,10 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.calculation_method</t>
   </si>
   <si>
-    <t>Spatially dependent</t>
-  </si>
-  <si>
-    <t>Temporally dependent</t>
+    <t>spatially dependent</t>
+  </si>
+  <si>
+    <t>temporally dependent</t>
   </si>
   <si>
     <t>9.3.1.4 *</t>
@@ -3099,13 +3108,13 @@
     <t>cmip6.atmos.natural_forcing.solar_pathways.pathways</t>
   </si>
   <si>
-    <t>SW radiation</t>
-  </si>
-  <si>
-    <t>Precipitating energetic particles</t>
-  </si>
-  <si>
-    <t>Cosmic rays</t>
+    <t>SW radiation: Shortwave solar spectral irradiance.</t>
+  </si>
+  <si>
+    <t>precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes of the chemical composition</t>
+  </si>
+  <si>
+    <t>cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
   </si>
   <si>
     <t>10.3.1</t>
@@ -3126,10 +3135,10 @@
     <t>cmip6.atmos.natural_forcing.solar_constant.type</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Transient</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>transient</t>
   </si>
   <si>
     <t xml:space="preserve">10.3.1.2 </t>
@@ -3270,10 +3279,10 @@
     <t>cmip6.atmos.natural_forcing.volcanoes_treatment.volcanoes_implementation</t>
   </si>
   <si>
-    <t>High frequency solar constant anomaly</t>
-  </si>
-  <si>
-    <t>Stratospheric aerosols optical thickness</t>
+    <t>high frequency solar constant anomaly</t>
+  </si>
+  <si>
+    <t>stratospheric aerosols optical thickness</t>
   </si>
 </sst>
 </file>
@@ -3934,20 +3943,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3958,10 +3967,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3969,7 +3978,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3980,10 +3989,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3996,23 +4005,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4020,10 +4029,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4034,13 +4043,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>66</v>
@@ -4048,10 +4057,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4059,19 +4068,19 @@
         <v>61</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>66</v>
@@ -4079,23 +4088,23 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4103,19 +4112,19 @@
         <v>61</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>66</v>
@@ -4123,10 +4132,10 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4134,10 +4143,10 @@
         <v>94</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4145,10 +4154,10 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4156,10 +4165,10 @@
         <v>94</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4167,10 +4176,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4178,10 +4187,10 @@
         <v>94</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4189,34 +4198,34 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4224,7 +4233,7 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>121</v>
@@ -4235,19 +4244,19 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>66</v>
@@ -4255,10 +4264,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -4266,10 +4275,10 @@
         <v>99</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -4277,10 +4286,10 @@
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
@@ -4288,10 +4297,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -4299,23 +4308,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -4323,19 +4332,19 @@
         <v>61</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>66</v>
@@ -4343,10 +4352,10 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -4354,10 +4363,10 @@
         <v>61</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4368,10 +4377,10 @@
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>66</v>
@@ -4437,20 +4446,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4461,10 +4470,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4472,7 +4481,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -4483,10 +4492,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4499,10 +4508,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4510,19 +4519,19 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>66</v>
@@ -4530,10 +4539,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4541,19 +4550,19 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>66</v>
@@ -4561,10 +4570,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4572,10 +4581,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4586,13 +4595,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>66</v>
@@ -4600,20 +4609,20 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -4624,10 +4633,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4635,10 +4644,10 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -4646,10 +4655,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -4660,19 +4669,19 @@
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="AF37" s="6" t="s">
         <v>66</v>
@@ -4680,10 +4689,10 @@
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
@@ -4691,10 +4700,10 @@
         <v>61</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -4705,10 +4714,10 @@
     <row r="42" spans="1:32" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>66</v>
@@ -4716,10 +4725,10 @@
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -4727,22 +4736,22 @@
         <v>61</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>66</v>
@@ -4750,10 +4759,10 @@
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="24" customHeight="1">
@@ -4761,19 +4770,19 @@
         <v>61</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>173</v>
@@ -4782,7 +4791,7 @@
         <v>315</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="AF50" s="6" t="s">
         <v>66</v>
@@ -4790,20 +4799,20 @@
     </row>
     <row r="53" spans="1:32" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>45</v>
@@ -4814,10 +4823,10 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="24" customHeight="1">
@@ -4825,10 +4834,10 @@
     </row>
     <row r="60" spans="1:32" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="24" customHeight="1">
@@ -4836,10 +4845,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
@@ -4850,13 +4859,13 @@
     <row r="63" spans="1:32" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="AD63" s="6" t="s">
         <v>66</v>
@@ -4864,10 +4873,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -4875,10 +4884,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -4889,18 +4898,18 @@
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
@@ -4908,19 +4917,19 @@
         <v>61</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>66</v>
@@ -4928,10 +4937,10 @@
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -4939,19 +4948,19 @@
         <v>61</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="AC76" s="6" t="s">
         <v>173</v>
@@ -4960,7 +4969,7 @@
         <v>315</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>66</v>
@@ -5022,20 +5031,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5046,10 +5055,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5057,7 +5066,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -5068,10 +5077,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5084,23 +5093,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5108,10 +5117,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5122,13 +5131,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>66</v>
@@ -5136,20 +5145,20 @@
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>121</v>
@@ -5160,38 +5169,38 @@
         <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5199,10 +5208,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5210,10 +5219,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
@@ -5221,20 +5230,20 @@
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>121</v>
@@ -5245,27 +5254,27 @@
         <v>61</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
@@ -5273,10 +5282,10 @@
         <v>94</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5284,10 +5293,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5295,10 +5304,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5306,10 +5315,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5317,19 +5326,19 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>66</v>
@@ -5337,23 +5346,23 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
@@ -5361,10 +5370,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5372,23 +5381,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5396,10 +5405,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5412,10 +5421,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5423,19 +5432,19 @@
         <v>61</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>66</v>
@@ -7410,17 +7419,17 @@
         <v>367</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7431,10 +7440,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -7442,7 +7451,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -7453,10 +7462,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -7469,10 +7478,10 @@
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -7480,10 +7489,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -7494,43 +7503,43 @@
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>66</v>
@@ -7538,20 +7547,20 @@
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>45</v>
@@ -7562,10 +7571,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -7573,10 +7582,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -7584,22 +7593,22 @@
         <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AD28" s="6" t="s">
         <v>66</v>
@@ -7607,10 +7616,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -7618,10 +7627,10 @@
         <v>61</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -7632,19 +7641,19 @@
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF33" s="6" t="s">
         <v>66</v>
@@ -7652,10 +7661,10 @@
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -7663,10 +7672,10 @@
         <v>94</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
@@ -7674,10 +7683,10 @@
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
@@ -7685,10 +7694,10 @@
         <v>61</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -7699,10 +7708,10 @@
     <row r="42" spans="1:32" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>66</v>
@@ -7710,23 +7719,23 @@
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:50" ht="24" customHeight="1">
@@ -7734,10 +7743,10 @@
         <v>61</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:50" ht="24" customHeight="1">
@@ -7748,34 +7757,34 @@
     <row r="51" spans="1:50" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI51" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ51" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK51" s="6" t="s">
         <v>66</v>
@@ -7783,10 +7792,10 @@
     </row>
     <row r="53" spans="1:50" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:50" ht="24" customHeight="1">
@@ -7794,10 +7803,10 @@
         <v>61</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="24" customHeight="1">
@@ -7808,55 +7817,55 @@
     <row r="56" spans="1:50" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF56" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ56" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK56" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL56" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM56" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN56" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO56" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP56" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ56" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR56" s="6" t="s">
         <v>66</v>
@@ -7864,10 +7873,10 @@
     </row>
     <row r="58" spans="1:50" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:50" ht="24" customHeight="1">
@@ -7875,10 +7884,10 @@
         <v>61</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:50" ht="24" customHeight="1">
@@ -7889,73 +7898,73 @@
     <row r="61" spans="1:50" ht="24" customHeight="1">
       <c r="B61" s="11"/>
       <c r="AA61" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF61" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AI61" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ61" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL61" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM61" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN61" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO61" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AP61" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AQ61" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AR61" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AS61" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AT61" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AU61" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AV61" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AW61" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AX61" s="6" t="s">
         <v>66</v>
@@ -7963,23 +7972,23 @@
     </row>
     <row r="64" spans="1:50" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="24" customHeight="1">
@@ -7987,10 +7996,10 @@
         <v>61</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
@@ -8001,25 +8010,25 @@
     <row r="70" spans="1:34" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF70" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG70" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH70" s="6" t="s">
         <v>66</v>
@@ -8027,10 +8036,10 @@
     </row>
     <row r="72" spans="1:34" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
@@ -8038,10 +8047,10 @@
         <v>61</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
@@ -8052,19 +8061,19 @@
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>66</v>
@@ -8072,23 +8081,23 @@
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24" customHeight="1">
       <c r="B79" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
@@ -8096,10 +8105,10 @@
         <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8110,16 +8119,16 @@
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>66</v>
@@ -8127,10 +8136,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8138,10 +8147,10 @@
         <v>61</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
@@ -8152,10 +8161,10 @@
     <row r="89" spans="1:31" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC89" s="6" t="s">
         <v>66</v>
@@ -8163,23 +8172,23 @@
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8187,22 +8196,22 @@
         <v>61</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="11"/>
       <c r="AA97" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AD97" s="6" t="s">
         <v>66</v>
@@ -8210,23 +8219,23 @@
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
@@ -8234,10 +8243,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
@@ -8248,22 +8257,22 @@
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="B106" s="11"/>
       <c r="AA106" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AB106" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC106" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AD106" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE106" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF106" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG106" s="6" t="s">
         <v>66</v>
@@ -8271,10 +8280,10 @@
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -8282,10 +8291,10 @@
         <v>61</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -8296,19 +8305,19 @@
     <row r="111" spans="1:33" ht="24" customHeight="1">
       <c r="B111" s="11"/>
       <c r="AA111" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB111" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC111" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD111" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE111" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF111" s="6" t="s">
         <v>66</v>
@@ -8316,20 +8325,20 @@
     </row>
     <row r="114" spans="1:32" ht="24" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="B115" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:32" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>45</v>
@@ -8340,10 +8349,10 @@
         <v>46</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="24" customHeight="1">
@@ -8351,10 +8360,10 @@
     </row>
     <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:32" ht="24" customHeight="1">
@@ -8362,22 +8371,22 @@
         <v>61</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="24" customHeight="1">
       <c r="B123" s="11"/>
       <c r="AA123" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AB123" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC123" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AD123" s="6" t="s">
         <v>66</v>
@@ -8385,10 +8394,10 @@
     </row>
     <row r="125" spans="1:32" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="24" customHeight="1">
@@ -8396,10 +8405,10 @@
         <v>61</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="24" customHeight="1">
@@ -8410,19 +8419,19 @@
     <row r="128" spans="1:32" ht="24" customHeight="1">
       <c r="B128" s="11"/>
       <c r="AA128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB128" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC128" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD128" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE128" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF128" s="6" t="s">
         <v>66</v>
@@ -8430,10 +8439,10 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
@@ -8441,10 +8450,10 @@
         <v>94</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:29" ht="24" customHeight="1">
@@ -8452,10 +8461,10 @@
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
@@ -8463,10 +8472,10 @@
         <v>61</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:29" ht="24" customHeight="1">
@@ -8477,10 +8486,10 @@
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="B137" s="11"/>
       <c r="AA137" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AB137" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AC137" s="6" t="s">
         <v>66</v>
@@ -8488,23 +8497,23 @@
     </row>
     <row r="140" spans="1:29" ht="24" customHeight="1">
       <c r="A140" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
@@ -8512,10 +8521,10 @@
         <v>61</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="24" customHeight="1">
@@ -8526,34 +8535,34 @@
     <row r="146" spans="1:50" ht="24" customHeight="1">
       <c r="B146" s="11"/>
       <c r="AA146" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB146" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC146" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD146" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE146" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF146" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG146" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI146" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ146" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK146" s="6" t="s">
         <v>66</v>
@@ -8561,10 +8570,10 @@
     </row>
     <row r="148" spans="1:50" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:50" ht="24" customHeight="1">
@@ -8572,10 +8581,10 @@
         <v>61</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="150" spans="1:50" ht="24" customHeight="1">
@@ -8586,55 +8595,55 @@
     <row r="151" spans="1:50" ht="24" customHeight="1">
       <c r="B151" s="11"/>
       <c r="AA151" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG151" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH151" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI151" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ151" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK151" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL151" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM151" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN151" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO151" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP151" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ151" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR151" s="6" t="s">
         <v>66</v>
@@ -8642,10 +8651,10 @@
     </row>
     <row r="153" spans="1:50" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="24" customHeight="1">
@@ -8653,10 +8662,10 @@
         <v>61</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:50" ht="24" customHeight="1">
@@ -8667,73 +8676,73 @@
     <row r="156" spans="1:50" ht="24" customHeight="1">
       <c r="B156" s="11"/>
       <c r="AA156" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AB156" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC156" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AD156" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE156" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF156" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG156" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AI156" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ156" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK156" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL156" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN156" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO156" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AP156" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AQ156" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AR156" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AS156" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AT156" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AU156" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AV156" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AW156" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AX156" s="6" t="s">
         <v>66</v>
@@ -8741,23 +8750,23 @@
     </row>
     <row r="159" spans="1:50" ht="24" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:50" ht="24" customHeight="1">
       <c r="B160" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:34" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="1:34" ht="24" customHeight="1">
@@ -8765,10 +8774,10 @@
         <v>61</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="164" spans="1:34" ht="24" customHeight="1">
@@ -8779,25 +8788,25 @@
     <row r="165" spans="1:34" ht="24" customHeight="1">
       <c r="B165" s="11"/>
       <c r="AA165" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB165" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AD165" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AE165" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF165" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG165" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH165" s="6" t="s">
         <v>66</v>
@@ -8805,10 +8814,10 @@
     </row>
     <row r="167" spans="1:34" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="24" customHeight="1">
@@ -8816,10 +8825,10 @@
         <v>61</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="1:34" ht="24" customHeight="1">
@@ -8830,19 +8839,19 @@
     <row r="170" spans="1:34" ht="24" customHeight="1">
       <c r="B170" s="11"/>
       <c r="AA170" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB170" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC170" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD170" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE170" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF170" s="6" t="s">
         <v>66</v>
@@ -8850,23 +8859,23 @@
     </row>
     <row r="173" spans="1:34" ht="24" customHeight="1">
       <c r="A173" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="174" spans="1:34" ht="24" customHeight="1">
       <c r="B174" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="176" spans="1:34" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="24" customHeight="1">
@@ -8874,10 +8883,10 @@
         <v>61</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="24" customHeight="1">
@@ -8888,16 +8897,16 @@
     <row r="179" spans="1:31" ht="24" customHeight="1">
       <c r="B179" s="11"/>
       <c r="AA179" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB179" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC179" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AD179" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE179" s="6" t="s">
         <v>66</v>
@@ -8905,10 +8914,10 @@
     </row>
     <row r="181" spans="1:31" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="24" customHeight="1">
@@ -8916,10 +8925,10 @@
         <v>61</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:31" ht="24" customHeight="1">
@@ -8930,10 +8939,10 @@
     <row r="184" spans="1:31" ht="24" customHeight="1">
       <c r="B184" s="11"/>
       <c r="AA184" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB184" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC184" s="6" t="s">
         <v>66</v>
@@ -8941,23 +8950,23 @@
     </row>
     <row r="187" spans="1:31" ht="24" customHeight="1">
       <c r="A187" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:31" ht="24" customHeight="1">
       <c r="B188" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="1:31" ht="24" customHeight="1">
       <c r="A190" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="24" customHeight="1">
@@ -8965,22 +8974,22 @@
         <v>61</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="24" customHeight="1">
       <c r="B192" s="11"/>
       <c r="AA192" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB192" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AC192" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AD192" s="6" t="s">
         <v>66</v>
@@ -8988,23 +8997,23 @@
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
       <c r="A195" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
       <c r="B196" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
@@ -9012,10 +9021,10 @@
         <v>61</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
@@ -9026,22 +9035,22 @@
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="B201" s="11"/>
       <c r="AA201" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AB201" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC201" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AD201" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE201" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF201" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG201" s="6" t="s">
         <v>66</v>
@@ -9049,10 +9058,10 @@
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -9060,10 +9069,10 @@
         <v>61</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:33" ht="24" customHeight="1">
@@ -9074,19 +9083,19 @@
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="B206" s="11"/>
       <c r="AA206" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB206" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC206" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD206" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE206" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF206" s="6" t="s">
         <v>66</v>
@@ -9202,20 +9211,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9226,10 +9235,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9237,7 +9246,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -9248,10 +9257,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9264,20 +9273,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>283</v>
@@ -9288,22 +9297,22 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD19" s="6" t="s">
         <v>66</v>
@@ -9311,7 +9320,7 @@
     </row>
     <row r="21" spans="1:37" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>170</v>
@@ -9322,10 +9331,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="24" customHeight="1">
@@ -9336,34 +9345,34 @@
     <row r="24" spans="1:37" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AK24" s="6" t="s">
         <v>66</v>
@@ -9371,10 +9380,10 @@
     </row>
     <row r="26" spans="1:37" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="24" customHeight="1">
@@ -9382,10 +9391,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
@@ -9393,10 +9402,10 @@
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="24" customHeight="1">
@@ -9404,10 +9413,10 @@
         <v>99</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
@@ -9415,20 +9424,20 @@
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>283</v>
@@ -9439,10 +9448,10 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
@@ -9450,7 +9459,7 @@
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>170</v>
@@ -9461,10 +9470,10 @@
         <v>61</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
@@ -9475,13 +9484,13 @@
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>66</v>
@@ -9489,7 +9498,7 @@
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>176</v>
@@ -9500,10 +9509,10 @@
         <v>61</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="24" customHeight="1">
@@ -9514,19 +9523,19 @@
     <row r="50" spans="1:36" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>411</v>
+        <v>668</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AF50" s="6" t="s">
         <v>66</v>
@@ -9534,10 +9543,10 @@
     </row>
     <row r="52" spans="1:36" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="24" customHeight="1">
@@ -9545,10 +9554,10 @@
         <v>61</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="24" customHeight="1">
@@ -9559,31 +9568,31 @@
     <row r="55" spans="1:36" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AJ55" s="6" t="s">
         <v>66</v>
@@ -9591,10 +9600,10 @@
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:36" ht="24" customHeight="1">
@@ -9602,10 +9611,10 @@
         <v>61</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
@@ -9616,13 +9625,13 @@
     <row r="60" spans="1:36" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AD60" s="6" t="s">
         <v>66</v>
@@ -9630,20 +9639,20 @@
     </row>
     <row r="63" spans="1:36" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>283</v>
@@ -9654,10 +9663,10 @@
         <v>46</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -9665,7 +9674,7 @@
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>170</v>
@@ -9676,10 +9685,10 @@
         <v>61</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -9690,10 +9699,10 @@
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>66</v>
@@ -9701,7 +9710,7 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>176</v>
@@ -9712,22 +9721,22 @@
         <v>61</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AD77" s="6" t="s">
         <v>66</v>
@@ -9735,10 +9744,10 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
@@ -9746,10 +9755,10 @@
         <v>61</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
@@ -9760,19 +9769,19 @@
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="B82" s="11"/>
       <c r="AA82" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AB82" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AC82" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AE82" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AF82" s="6" t="s">
         <v>66</v>
@@ -9780,10 +9789,10 @@
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
@@ -9791,10 +9800,10 @@
         <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -9805,13 +9814,13 @@
     <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AD87" s="6" t="s">
         <v>66</v>
@@ -9876,20 +9885,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9900,10 +9909,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9911,7 +9920,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -9922,10 +9931,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9938,20 +9947,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>283</v>
@@ -9962,10 +9971,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -9973,10 +9982,10 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -9984,10 +9993,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -9998,16 +10007,16 @@
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AE24" s="6" t="s">
         <v>66</v>
@@ -10015,20 +10024,20 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>283</v>
@@ -10039,10 +10048,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10050,10 +10059,10 @@
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -10061,10 +10070,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -10075,28 +10084,28 @@
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AH37" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AI37" s="6" t="s">
         <v>66</v>
@@ -10131,20 +10140,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10155,10 +10164,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -10166,7 +10175,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -10177,10 +10186,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -10193,7 +10202,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>170</v>
@@ -10204,10 +10213,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -10218,10 +10227,10 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>66</v>
@@ -10229,10 +10238,10 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -10240,10 +10249,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
@@ -10251,10 +10260,10 @@
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -10262,10 +10271,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -10276,13 +10285,13 @@
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>66</v>
@@ -10290,7 +10299,7 @@
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>240</v>
@@ -10301,10 +10310,10 @@
         <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -10315,25 +10324,25 @@
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>518</v>
+        <v>782</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AH30" s="6" t="s">
         <v>66</v>
@@ -10341,10 +10350,10 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -10352,10 +10361,10 @@
         <v>61</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -10366,43 +10375,43 @@
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -10410,25 +10419,25 @@
         <v>61</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AE43" s="6" t="s">
         <v>66</v>
@@ -10436,10 +10445,10 @@
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -10447,10 +10456,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -10458,20 +10467,20 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>121</v>
@@ -10482,27 +10491,27 @@
         <v>61</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
@@ -10510,10 +10519,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
@@ -10521,10 +10530,10 @@
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
@@ -10532,10 +10541,10 @@
         <v>94</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -10543,10 +10552,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -10554,10 +10563,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -10568,31 +10577,31 @@
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>121</v>
@@ -10603,27 +10612,27 @@
         <v>61</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
@@ -10631,10 +10640,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -10642,10 +10651,10 @@
     </row>
     <row r="82" spans="1:29" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
@@ -10653,10 +10662,10 @@
         <v>94</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
@@ -10664,10 +10673,10 @@
     </row>
     <row r="86" spans="1:29" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
@@ -10675,10 +10684,10 @@
         <v>61</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
@@ -10689,13 +10698,13 @@
     <row r="89" spans="1:29" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
